--- a/biology/Médecine/Paul_Jolly/Paul_Jolly.xlsx
+++ b/biology/Médecine/Paul_Jolly/Paul_Jolly.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Paul Jolly (8 juin 1790 à La Chaussée - 14 mai 1879 à Paris) est un médecin français, membre de l’Académie de médecine[1] de Paris.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Paul Jolly (8 juin 1790 à La Chaussée - 14 mai 1879 à Paris) est un médecin français, membre de l’Académie de médecine de Paris.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Élève et parent de Hippolyte Royer-Collard, il est reçu docteur en 1821.
 Collaborateur de plusieurs journaux de médecine, il est secrétaire-général de l’Athénée médical de Paris, dès 1815. En 1834, il est nommé rapporteur de la Commission d’organisation médicale présidée par Mathieu Orfila. En 1835, il est admis à l’Académie impériale de médecine. Il publie de très nombreux et estimés rapports médicaux.
@@ -545,7 +559,9 @@
           <t>Œuvres et publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Essai sur la statistique et la topographie médicale de la ville de Châlons-sur-Marne, Boniez-Lambert, 1820, 84 p.
 Paroles de regrets prononcées sur la tombe de M. le professeur Royer-Collard, au nom de l'Athénée de médecine de Paris, Gueffier, 1825, 3 p.
@@ -562,7 +578,7 @@
 Études médicales sur le tabac [lues à l'Académie impériale de médecine dans les séances des 21 et 28 février 1865], impr. de F. Malteste, 24 p.
  Études hygiéniques et médicales sur le tabac, F.-V. Bitsch, 1865, 50 p.
 L'absinthe et le tabac, [lu à l'Académie de médecine, dans sa séance du 25 juillet 1871], impr. de A. Chaix (Paris), 1871, 23 p., lire en ligne sur Gallica.
-Etudes hygiéniques et médicales sur l'alcool et ses composés, impr. de F.-V. Bittsch (Vitry), [1866].
+Etudes hygiéniques et médicales sur l'alcool et ses composés, impr. de F.-V. Bittsch (Vitry), .
 Le tabac et l'absinthe, leur influence sur la santé publique, sur l'ordre moral et social, Paris, 1875.
 Hygiène morale, J.-B. Baillière et fils (Paris), 1877,  276 p., lire en ligne sur Gallica.</t>
         </is>
